--- a/Config/data_config/ResourceConfig.xlsx
+++ b/Config/data_config/ResourceConfig.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23460" windowHeight="10880"/>
+    <workbookView windowWidth="16830" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="273">
   <si>
     <t>#</t>
   </si>
@@ -473,10 +486,22 @@
     <t>icon_buff_hero_0061</t>
   </si>
   <si>
+    <t>img_player_avatar_001</t>
+  </si>
+  <si>
+    <t>玩家头像</t>
+  </si>
+  <si>
+    <t>UI/Atlas/Common/PlayerAvatar</t>
+  </si>
+  <si>
+    <t>img_player_avatar_002</t>
+  </si>
+  <si>
     <t>img_avatar_001</t>
   </si>
   <si>
-    <t>头像</t>
+    <t>英雄头像</t>
   </si>
   <si>
     <t>UI/Atlas/Common/RoleAvatar</t>
@@ -866,7 +891,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1026,12 +1051,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1860,13 +1885,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A132" sqref="$A132:$XFD138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="4" width="38.875" customWidth="1"/>
@@ -4532,20 +4557,52 @@
       <c r="G129" s="2"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" ht="15" customHeight="1" spans="3:8">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
+    <row r="130" ht="15" customHeight="1" spans="1:8">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>15003401</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G130" s="2">
+        <v>2</v>
+      </c>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" ht="15" customHeight="1" spans="3:8">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
+    <row r="131" ht="15" customHeight="1" spans="1:8">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>15003402</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="2">
+        <v>3</v>
+      </c>
       <c r="H131" s="5"/>
     </row>
     <row r="132" ht="15" customHeight="1" spans="3:8">
@@ -4596,124 +4653,44 @@
       <c r="G137" s="2"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" ht="15" customHeight="1" spans="1:8">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>15003501</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G138" s="2">
-        <v>2</v>
-      </c>
+    <row r="138" ht="15" customHeight="1" spans="3:8">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" ht="15" customHeight="1" spans="1:8">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>15003502</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G139" s="2">
-        <v>2</v>
-      </c>
+    <row r="139" ht="15" customHeight="1" spans="3:8">
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" ht="15" customHeight="1" spans="1:8">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140">
-        <v>15003503</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G140" s="2">
-        <v>2</v>
-      </c>
+    <row r="140" ht="15" customHeight="1" spans="3:8">
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" ht="15" customHeight="1" spans="1:8">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>15003504</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G141" s="2">
-        <v>2</v>
-      </c>
+    <row r="141" ht="15" customHeight="1" spans="3:8">
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" ht="15" customHeight="1" spans="1:8">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>15003505</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G142" s="2">
-        <v>2</v>
-      </c>
+    <row r="142" ht="15" customHeight="1" spans="3:8">
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" ht="15" customHeight="1" spans="1:8">
@@ -4721,16 +4698,16 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>15003506</v>
+        <v>15003501</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>40</v>
@@ -4745,16 +4722,16 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>15003507</v>
+        <v>15003502</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>40</v>
@@ -4769,16 +4746,16 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>15003508</v>
+        <v>15003503</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>40</v>
@@ -4793,31 +4770,47 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>15003509</v>
+        <v>15003504</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" s="2">
+        <v>2</v>
+      </c>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" ht="15" customHeight="1" spans="1:8">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>15003505</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G146" s="2">
-        <v>2</v>
-      </c>
-      <c r="H146" s="5"/>
-    </row>
-    <row r="147" ht="15" customHeight="1" spans="3:8">
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G147" s="2">
+        <v>2</v>
+      </c>
       <c r="H147" s="5"/>
     </row>
     <row r="148" ht="15" customHeight="1" spans="1:8">
@@ -4825,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>15003601</v>
+        <v>15003506</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>40</v>
@@ -4849,16 +4842,16 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <v>15003602</v>
+        <v>15003507</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>40</v>
@@ -4873,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>15003603</v>
+        <v>15003508</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>40</v>
@@ -4897,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>15003604</v>
+        <v>15003509</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>40</v>
@@ -4924,36 +4917,100 @@
       <c r="G152" s="2"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" ht="15" customHeight="1" spans="3:8">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
+    <row r="153" ht="15" customHeight="1" spans="1:8">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>15003601</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G153" s="2">
+        <v>2</v>
+      </c>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" ht="15" customHeight="1" spans="3:8">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+    <row r="154" ht="15" customHeight="1" spans="1:8">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>15003602</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G154" s="2">
+        <v>2</v>
+      </c>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" ht="15" customHeight="1" spans="3:8">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
+    <row r="155" ht="15" customHeight="1" spans="1:8">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>15003603</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G155" s="2">
+        <v>2</v>
+      </c>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" ht="15" customHeight="1" spans="3:8">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
+    <row r="156" ht="15" customHeight="1" spans="1:8">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>15003604</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" s="2">
+        <v>2</v>
+      </c>
       <c r="H156" s="5"/>
     </row>
     <row r="157" ht="15" customHeight="1" spans="3:8">
@@ -5044,124 +5101,44 @@
       <c r="G167" s="2"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" ht="15" customHeight="1" spans="1:8">
-      <c r="A168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168">
-        <v>15003701</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G168" s="2">
-        <v>2</v>
-      </c>
+    <row r="168" ht="15" customHeight="1" spans="3:8">
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" ht="15" customHeight="1" spans="1:8">
-      <c r="A169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169">
-        <v>15003702</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G169" s="2">
-        <v>2</v>
-      </c>
+    <row r="169" ht="15" customHeight="1" spans="3:8">
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" ht="15" customHeight="1" spans="1:8">
-      <c r="A170" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170">
-        <v>15003703</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G170" s="2">
-        <v>2</v>
-      </c>
+    <row r="170" ht="15" customHeight="1" spans="3:8">
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" ht="15" customHeight="1" spans="1:8">
-      <c r="A171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171">
-        <v>15003704</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G171" s="2">
-        <v>2</v>
-      </c>
+    <row r="171" ht="15" customHeight="1" spans="3:8">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" ht="15" customHeight="1" spans="1:8">
-      <c r="A172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B172">
-        <v>15003705</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G172" s="2">
-        <v>2</v>
-      </c>
+    <row r="172" ht="15" customHeight="1" spans="3:8">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
       <c r="H172" s="5"/>
     </row>
     <row r="173" ht="15" customHeight="1" spans="1:8">
@@ -5169,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="B173">
-        <v>15003706</v>
+        <v>15003701</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>40</v>
@@ -5188,12 +5165,28 @@
       </c>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" ht="15" customHeight="1" spans="3:8">
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
+    <row r="174" ht="15" customHeight="1" spans="1:8">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>15003702</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G174" s="2">
+        <v>2</v>
+      </c>
       <c r="H174" s="5"/>
     </row>
     <row r="175" ht="15" customHeight="1" spans="1:8">
@@ -5201,16 +5194,16 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <v>15003751</v>
+        <v>15003703</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>40</v>
@@ -5225,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>15003752</v>
+        <v>15003704</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>40</v>
@@ -5249,16 +5242,16 @@
         <v>0</v>
       </c>
       <c r="B177">
-        <v>15003753</v>
+        <v>15003705</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>40</v>
@@ -5273,71 +5266,103 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <v>15003754</v>
+        <v>15003706</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" s="2">
+        <v>2</v>
+      </c>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" ht="15" customHeight="1" spans="3:8">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" ht="15" customHeight="1" spans="1:8">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>15003751</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G178" s="2">
-        <v>2</v>
-      </c>
-      <c r="H178" s="5"/>
-    </row>
-    <row r="179" ht="15" customHeight="1" spans="1:8">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179">
-        <v>15003755</v>
-      </c>
-      <c r="C179" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G179" s="2">
-        <v>2</v>
-      </c>
-      <c r="H179" s="5"/>
-    </row>
-    <row r="180" ht="15" customHeight="1" spans="3:8">
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="F180" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G180" s="2">
+        <v>2</v>
+      </c>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" ht="15" customHeight="1" spans="3:8">
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+    <row r="181" ht="15" customHeight="1" spans="1:8">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>15003752</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G181" s="2">
+        <v>2</v>
+      </c>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" ht="15" customHeight="1" spans="3:8">
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+    <row r="182" ht="15" customHeight="1" spans="1:8">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>15003753</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G182" s="2">
+        <v>2</v>
+      </c>
       <c r="H182" s="5"/>
     </row>
     <row r="183" ht="15" customHeight="1" spans="1:8">
@@ -5345,16 +5370,16 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>15004001</v>
+        <v>15003754</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>40</v>
@@ -5369,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <v>15004002</v>
+        <v>15003755</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>40</v>
@@ -5388,28 +5413,12 @@
       </c>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" ht="15" customHeight="1" spans="1:8">
-      <c r="A185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B185">
-        <v>15004003</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G185" s="2">
-        <v>2</v>
-      </c>
+    <row r="185" ht="15" customHeight="1" spans="3:8">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
       <c r="H185" s="5"/>
     </row>
     <row r="186" ht="15" customHeight="1" spans="3:8">
@@ -5428,28 +5437,76 @@
       <c r="G187" s="2"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" ht="15" customHeight="1" spans="3:8">
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
+    <row r="188" ht="15" customHeight="1" spans="1:8">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>15004001</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G188" s="2">
+        <v>2</v>
+      </c>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" ht="15" customHeight="1" spans="3:8">
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
+    <row r="189" ht="15" customHeight="1" spans="1:8">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>15004002</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" s="2">
+        <v>2</v>
+      </c>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" ht="15" customHeight="1" spans="3:8">
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
+    <row r="190" ht="15" customHeight="1" spans="1:8">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>15004003</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190" s="2">
+        <v>2</v>
+      </c>
       <c r="H190" s="5"/>
     </row>
     <row r="191" ht="15" customHeight="1" spans="3:8">
@@ -5460,100 +5517,36 @@
       <c r="G191" s="2"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" ht="15" customHeight="1" spans="1:8">
-      <c r="A192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192">
-        <v>15005000</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G192" s="2">
-        <v>2</v>
-      </c>
+    <row r="192" ht="15" customHeight="1" spans="3:8">
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" ht="15" customHeight="1" spans="1:8">
-      <c r="A193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193">
-        <v>15005001</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G193" s="2">
-        <v>2</v>
-      </c>
+    <row r="193" ht="15" customHeight="1" spans="3:8">
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" ht="15" customHeight="1" spans="1:8">
-      <c r="A194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194">
-        <v>15005002</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G194" s="2">
-        <v>2</v>
-      </c>
+    <row r="194" ht="15" customHeight="1" spans="3:8">
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" ht="15" customHeight="1" spans="1:8">
-      <c r="A195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195">
-        <v>15005003</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G195" s="2">
-        <v>2</v>
-      </c>
+    <row r="195" ht="15" customHeight="1" spans="3:8">
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="5"/>
     </row>
     <row r="196" ht="15" customHeight="1" spans="3:8">
@@ -5564,108 +5557,119 @@
       <c r="G196" s="2"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" ht="15" customHeight="1" spans="3:8">
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
+    <row r="197" ht="15" customHeight="1" spans="1:8">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>15005000</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" s="2">
+        <v>2</v>
+      </c>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" ht="15" customHeight="1" spans="3:8">
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
+    <row r="198" ht="15" customHeight="1" spans="1:8">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>15005001</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G198" s="2">
+        <v>2</v>
+      </c>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" ht="17" customHeight="1" spans="1:8">
+    <row r="199" ht="15" customHeight="1" spans="1:8">
       <c r="A199" t="s">
         <v>0</v>
       </c>
       <c r="B199">
-        <v>15006001</v>
+        <v>15005002</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="G199" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" ht="15" customHeight="1" spans="1:8">
       <c r="A200" t="s">
         <v>0</v>
       </c>
       <c r="B200">
-        <v>15006002</v>
-      </c>
-      <c r="C200" t="s">
+        <v>15005003</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E200" t="s">
-        <v>191</v>
-      </c>
-      <c r="F200" t="s">
-        <v>192</v>
-      </c>
-      <c r="G200">
-        <v>3</v>
+      <c r="D200" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G200" s="2">
+        <v>2</v>
       </c>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" ht="17" customHeight="1" spans="1:8">
-      <c r="A201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201">
-        <v>15006003</v>
-      </c>
-      <c r="C201" t="s">
-        <v>193</v>
-      </c>
-      <c r="E201" t="s">
-        <v>191</v>
-      </c>
-      <c r="F201" t="s">
-        <v>192</v>
-      </c>
-      <c r="G201">
-        <v>3</v>
-      </c>
+    <row r="201" ht="15" customHeight="1" spans="3:8">
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" ht="17" customHeight="1" spans="1:8">
-      <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>15006004</v>
-      </c>
-      <c r="C202" t="s">
-        <v>194</v>
-      </c>
-      <c r="E202" t="s">
-        <v>191</v>
-      </c>
-      <c r="F202" t="s">
-        <v>192</v>
-      </c>
-      <c r="G202">
-        <v>3</v>
-      </c>
+    <row r="202" ht="15" customHeight="1" spans="3:8">
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" ht="17" customHeight="1" spans="3:8">
+    <row r="203" ht="15" customHeight="1" spans="3:8">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -5673,28 +5677,68 @@
       <c r="G203" s="2"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" ht="17" customHeight="1" spans="3:8">
-      <c r="C204" s="2"/>
+    <row r="204" ht="17" customHeight="1" spans="1:8">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>15006001</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
+      <c r="E204" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G204" s="2">
+        <v>3</v>
+      </c>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" ht="17" customHeight="1" spans="3:8">
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>15006002</v>
+      </c>
+      <c r="C205" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" t="s">
+        <v>195</v>
+      </c>
+      <c r="F205" t="s">
+        <v>196</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" ht="17" customHeight="1" spans="3:8">
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
+    <row r="206" ht="17" customHeight="1" spans="1:8">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>15006003</v>
+      </c>
+      <c r="C206" t="s">
+        <v>197</v>
+      </c>
+      <c r="E206" t="s">
+        <v>195</v>
+      </c>
+      <c r="F206" t="s">
+        <v>196</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
       <c r="H206" s="5"/>
     </row>
     <row r="207" ht="17" customHeight="1" spans="1:8">
@@ -5702,109 +5746,52 @@
         <v>0</v>
       </c>
       <c r="B207">
-        <v>15008001</v>
-      </c>
-      <c r="C207" s="2" t="s">
+        <v>15006004</v>
+      </c>
+      <c r="C207" t="s">
+        <v>198</v>
+      </c>
+      <c r="E207" t="s">
         <v>195</v>
       </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2" t="s">
+      <c r="F207" t="s">
         <v>196</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" s="2">
-        <v>4</v>
+      <c r="G207">
+        <v>3</v>
       </c>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" ht="17" customHeight="1" spans="1:8">
-      <c r="A208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208">
-        <v>15008002</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>197</v>
-      </c>
+    <row r="208" ht="17" customHeight="1" spans="3:8">
+      <c r="C208" s="2"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" s="2">
-        <v>4</v>
-      </c>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
       <c r="H208" s="5"/>
     </row>
-    <row r="209" ht="17" customHeight="1" spans="1:8">
-      <c r="A209" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209">
-        <v>15008003</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>198</v>
-      </c>
+    <row r="209" ht="17" customHeight="1" spans="3:8">
+      <c r="C209" s="2"/>
       <c r="D209" s="2"/>
-      <c r="E209" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" s="2">
-        <v>4</v>
-      </c>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
       <c r="H209" s="5"/>
     </row>
-    <row r="210" ht="17" customHeight="1" spans="1:8">
-      <c r="A210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210">
-        <v>15008004</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>199</v>
-      </c>
+    <row r="210" ht="17" customHeight="1" spans="3:8">
+      <c r="C210" s="2"/>
       <c r="D210" s="2"/>
-      <c r="E210" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" s="2">
-        <v>4</v>
-      </c>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
       <c r="H210" s="5"/>
     </row>
-    <row r="211" ht="17" customHeight="1" spans="1:8">
-      <c r="A211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211">
-        <v>15008005</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>200</v>
-      </c>
+    <row r="211" ht="17" customHeight="1" spans="3:8">
+      <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" s="2">
-        <v>4</v>
-      </c>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
       <c r="H211" s="5"/>
     </row>
     <row r="212" ht="17" customHeight="1" spans="1:8">
@@ -5812,14 +5799,14 @@
         <v>0</v>
       </c>
       <c r="B212">
-        <v>15008006</v>
+        <v>15008001</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -5834,14 +5821,14 @@
         <v>0</v>
       </c>
       <c r="B213">
-        <v>15008007</v>
+        <v>15008002</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -5856,14 +5843,14 @@
         <v>0</v>
       </c>
       <c r="B214">
-        <v>15008008</v>
+        <v>15008003</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>20</v>
@@ -5878,14 +5865,14 @@
         <v>0</v>
       </c>
       <c r="B215">
-        <v>15008009</v>
+        <v>15008004</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>20</v>
@@ -5900,14 +5887,14 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>15008010</v>
+        <v>15008005</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>20</v>
@@ -5922,14 +5909,14 @@
         <v>0</v>
       </c>
       <c r="B217">
-        <v>15008011</v>
+        <v>15008006</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5944,14 +5931,14 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>15008012</v>
+        <v>15008007</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5966,14 +5953,14 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>15008013</v>
+        <v>15008008</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -5988,14 +5975,14 @@
         <v>0</v>
       </c>
       <c r="B220">
-        <v>15008014</v>
+        <v>15008009</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>20</v>
@@ -6010,14 +5997,14 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>15008015</v>
+        <v>15008010</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>20</v>
@@ -6032,14 +6019,14 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>15008016</v>
+        <v>15008011</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>20</v>
@@ -6054,14 +6041,14 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>15008017</v>
+        <v>15008012</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>20</v>
@@ -6076,14 +6063,14 @@
         <v>0</v>
       </c>
       <c r="B224">
-        <v>15008018</v>
+        <v>15008013</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>20</v>
@@ -6098,14 +6085,14 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>15008019</v>
+        <v>15008014</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
@@ -6120,14 +6107,14 @@
         <v>0</v>
       </c>
       <c r="B226">
-        <v>15008020</v>
+        <v>15008015</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>20</v>
@@ -6142,14 +6129,14 @@
         <v>0</v>
       </c>
       <c r="B227">
-        <v>15008021</v>
+        <v>15008016</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>20</v>
@@ -6164,14 +6151,14 @@
         <v>0</v>
       </c>
       <c r="B228">
-        <v>15008022</v>
+        <v>15008017</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>20</v>
@@ -6186,14 +6173,14 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>15008023</v>
+        <v>15008018</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -6208,14 +6195,14 @@
         <v>0</v>
       </c>
       <c r="B230">
-        <v>15008024</v>
+        <v>15008019</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -6230,14 +6217,14 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>15008025</v>
+        <v>15008020</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -6252,14 +6239,14 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>15008026</v>
+        <v>15008021</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>20</v>
@@ -6274,16 +6261,14 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>15008027</v>
+        <v>15008022</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>223</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>20</v>
@@ -6298,16 +6283,14 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>15008028</v>
+        <v>15008023</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>20</v>
@@ -6322,14 +6305,14 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>15008029</v>
+        <v>15008024</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>20</v>
@@ -6344,14 +6327,14 @@
         <v>0</v>
       </c>
       <c r="B236">
-        <v>15008030</v>
+        <v>15008025</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>20</v>
@@ -6366,14 +6349,14 @@
         <v>0</v>
       </c>
       <c r="B237">
-        <v>15008031</v>
+        <v>15008026</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>20</v>
@@ -6388,14 +6371,16 @@
         <v>0</v>
       </c>
       <c r="B238">
-        <v>15008032</v>
-      </c>
-      <c r="C238" t="s">
-        <v>229</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>15008027</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E238" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>20</v>
@@ -6405,44 +6390,116 @@
       </c>
       <c r="H238" s="5"/>
     </row>
-    <row r="239" ht="17" customHeight="1" spans="3:8">
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
+    <row r="239" ht="17" customHeight="1" spans="1:8">
+      <c r="A239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>15008028</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G239" s="2">
+        <v>4</v>
+      </c>
       <c r="H239" s="5"/>
     </row>
-    <row r="240" ht="17" customHeight="1" spans="3:8">
-      <c r="C240" s="2"/>
+    <row r="240" ht="17" customHeight="1" spans="1:8">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>15008029</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
+      <c r="E240" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G240" s="2">
+        <v>4</v>
+      </c>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" ht="17" customHeight="1" spans="3:8">
-      <c r="C241" s="2"/>
+    <row r="241" ht="17" customHeight="1" spans="1:8">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>15008030</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
+      <c r="E241" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G241" s="2">
+        <v>4</v>
+      </c>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" ht="17" customHeight="1" spans="3:8">
-      <c r="C242" s="2"/>
+    <row r="242" ht="17" customHeight="1" spans="1:8">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>15008031</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
+      <c r="E242" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" s="2">
+        <v>4</v>
+      </c>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" ht="17" customHeight="1" spans="3:8">
-      <c r="C243" s="2"/>
+    <row r="243" ht="17" customHeight="1" spans="1:8">
+      <c r="A243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>15008032</v>
+      </c>
+      <c r="C243" t="s">
+        <v>233</v>
+      </c>
       <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
+      <c r="E243" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G243" s="2">
+        <v>4</v>
+      </c>
       <c r="H243" s="5"/>
     </row>
     <row r="244" ht="17" customHeight="1" spans="3:8">
@@ -6453,48 +6510,20 @@
       <c r="G244" s="2"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" ht="17" customHeight="1" spans="1:8">
-      <c r="A245" t="s">
-        <v>0</v>
-      </c>
-      <c r="B245">
-        <v>15008101</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>230</v>
-      </c>
+    <row r="245" ht="17" customHeight="1" spans="3:8">
+      <c r="C245" s="2"/>
       <c r="D245" s="2"/>
-      <c r="E245" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" s="2">
-        <v>4</v>
-      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
       <c r="H245" s="5"/>
     </row>
-    <row r="246" ht="17" customHeight="1" spans="1:8">
-      <c r="A246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246">
-        <v>15008102</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>231</v>
-      </c>
+    <row r="246" ht="17" customHeight="1" spans="3:8">
+      <c r="C246" s="2"/>
       <c r="D246" s="2"/>
-      <c r="E246" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" s="2">
-        <v>4</v>
-      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
       <c r="H246" s="5"/>
     </row>
     <row r="247" ht="17" customHeight="1" spans="3:8">
@@ -6505,48 +6534,20 @@
       <c r="G247" s="2"/>
       <c r="H247" s="5"/>
     </row>
-    <row r="248" ht="17" customHeight="1" spans="1:8">
-      <c r="A248" t="s">
-        <v>0</v>
-      </c>
-      <c r="B248">
-        <v>15008201</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>232</v>
-      </c>
+    <row r="248" ht="17" customHeight="1" spans="3:8">
+      <c r="C248" s="2"/>
       <c r="D248" s="2"/>
-      <c r="E248" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" s="2">
-        <v>4</v>
-      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
       <c r="H248" s="5"/>
     </row>
-    <row r="249" ht="17" customHeight="1" spans="1:8">
-      <c r="A249" t="s">
-        <v>0</v>
-      </c>
-      <c r="B249">
-        <v>15008202</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>233</v>
-      </c>
+    <row r="249" ht="17" customHeight="1" spans="3:8">
+      <c r="C249" s="2"/>
       <c r="D249" s="2"/>
-      <c r="E249" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249" s="2">
-        <v>4</v>
-      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
       <c r="H249" s="5"/>
     </row>
     <row r="250" ht="17" customHeight="1" spans="1:8">
@@ -6554,14 +6555,14 @@
         <v>0</v>
       </c>
       <c r="B250">
-        <v>15008203</v>
+        <v>15008101</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>20</v>
@@ -6571,12 +6572,26 @@
       </c>
       <c r="H250" s="5"/>
     </row>
-    <row r="251" ht="17" customHeight="1" spans="3:8">
-      <c r="C251" s="2"/>
+    <row r="251" ht="17" customHeight="1" spans="1:8">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>15008102</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
+      <c r="E251" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G251" s="2">
+        <v>4</v>
+      </c>
       <c r="H251" s="5"/>
     </row>
     <row r="252" ht="17" customHeight="1" spans="3:8">
@@ -6587,28 +6602,70 @@
       <c r="G252" s="2"/>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" ht="17" customHeight="1" spans="3:8">
-      <c r="C253" s="2"/>
+    <row r="253" ht="17" customHeight="1" spans="1:8">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>15008201</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
+      <c r="E253" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G253" s="2">
+        <v>4</v>
+      </c>
       <c r="H253" s="5"/>
     </row>
-    <row r="254" ht="17" customHeight="1" spans="3:8">
-      <c r="C254" s="2"/>
+    <row r="254" ht="17" customHeight="1" spans="1:8">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>15008202</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
+      <c r="E254" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G254" s="2">
+        <v>4</v>
+      </c>
       <c r="H254" s="5"/>
     </row>
-    <row r="255" ht="17" customHeight="1" spans="3:8">
-      <c r="C255" s="2"/>
+    <row r="255" ht="17" customHeight="1" spans="1:8">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>15008203</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
+      <c r="E255" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G255" s="2">
+        <v>4</v>
+      </c>
       <c r="H255" s="5"/>
     </row>
     <row r="256" ht="17" customHeight="1" spans="3:8">
@@ -6619,177 +6676,133 @@
       <c r="G256" s="2"/>
       <c r="H256" s="5"/>
     </row>
-    <row r="257" ht="17" customHeight="1" spans="1:8">
-      <c r="A257" t="s">
-        <v>0</v>
-      </c>
-      <c r="B257">
+    <row r="257" ht="17" customHeight="1" spans="3:8">
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" ht="17" customHeight="1" spans="3:8">
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="5"/>
+    </row>
+    <row r="259" ht="17" customHeight="1" spans="3:8">
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" ht="17" customHeight="1" spans="3:8">
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="5"/>
+    </row>
+    <row r="261" ht="17" customHeight="1" spans="3:8">
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="5"/>
+    </row>
+    <row r="262" ht="17" customHeight="1" spans="1:8">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262">
         <v>15010001</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257" s="2">
+      <c r="C262" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G262" s="2">
         <v>5</v>
       </c>
-      <c r="H257" s="5"/>
-    </row>
-    <row r="258" ht="17" customHeight="1" spans="1:8">
-      <c r="A258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B258">
+      <c r="H262" s="5"/>
+    </row>
+    <row r="263" ht="17" customHeight="1" spans="1:8">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263">
         <v>15010002</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G258" s="2">
+      <c r="C263" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G263" s="2">
         <v>5</v>
       </c>
-      <c r="H258" s="5"/>
-    </row>
-    <row r="259" ht="17" customHeight="1" spans="1:8">
-      <c r="A259" t="s">
-        <v>0</v>
-      </c>
-      <c r="B259">
+      <c r="H263" s="5"/>
+    </row>
+    <row r="264" ht="17" customHeight="1" spans="1:8">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264">
         <v>15010003</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259" s="2">
+      <c r="C264" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G264" s="2">
         <v>5</v>
       </c>
-      <c r="H259" s="5"/>
-    </row>
-    <row r="260" spans="8:8">
-      <c r="H260" s="5"/>
-    </row>
-    <row r="261" spans="8:8">
-      <c r="H261" s="5"/>
-    </row>
-    <row r="262" spans="8:8">
-      <c r="H262" s="5"/>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263">
-        <v>15011001</v>
-      </c>
-      <c r="C263" t="s">
-        <v>239</v>
-      </c>
-      <c r="E263" t="s">
-        <v>240</v>
-      </c>
-      <c r="F263" t="s">
-        <v>20</v>
-      </c>
-      <c r="G263">
-        <v>6</v>
-      </c>
-      <c r="H263" s="5"/>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B264">
-        <v>15011002</v>
-      </c>
-      <c r="C264" t="s">
-        <v>241</v>
-      </c>
-      <c r="E264" t="s">
-        <v>240</v>
-      </c>
-      <c r="F264" t="s">
-        <v>20</v>
-      </c>
-      <c r="G264">
-        <v>6</v>
-      </c>
       <c r="H264" s="5"/>
     </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>0</v>
-      </c>
-      <c r="B265">
-        <v>15011003</v>
-      </c>
-      <c r="C265" t="s">
-        <v>242</v>
-      </c>
-      <c r="E265" t="s">
-        <v>240</v>
-      </c>
-      <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="G265">
-        <v>6</v>
-      </c>
+    <row r="265" spans="8:8">
       <c r="H265" s="5"/>
     </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>0</v>
-      </c>
-      <c r="B266">
-        <v>15011004</v>
-      </c>
-      <c r="C266" t="s">
-        <v>243</v>
-      </c>
-      <c r="E266" t="s">
-        <v>240</v>
-      </c>
-      <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266">
-        <v>6</v>
-      </c>
+    <row r="266" spans="8:8">
       <c r="H266" s="5"/>
+    </row>
+    <row r="267" spans="8:8">
+      <c r="H267" s="5"/>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>0</v>
       </c>
       <c r="B268">
-        <v>15011021</v>
+        <v>15011001</v>
       </c>
       <c r="C268" t="s">
+        <v>243</v>
+      </c>
+      <c r="E268" t="s">
         <v>244</v>
-      </c>
-      <c r="E268" t="s">
-        <v>240</v>
       </c>
       <c r="F268" t="s">
         <v>20</v>
@@ -6799,7 +6812,25 @@
       </c>
       <c r="H268" s="5"/>
     </row>
-    <row r="269" spans="8:8">
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>15011002</v>
+      </c>
+      <c r="C269" t="s">
+        <v>245</v>
+      </c>
+      <c r="E269" t="s">
+        <v>244</v>
+      </c>
+      <c r="F269" t="s">
+        <v>20</v>
+      </c>
+      <c r="G269">
+        <v>6</v>
+      </c>
       <c r="H269" s="5"/>
     </row>
     <row r="270" spans="1:8">
@@ -6807,13 +6838,13 @@
         <v>0</v>
       </c>
       <c r="B270">
-        <v>15011031</v>
+        <v>15011003</v>
       </c>
       <c r="C270" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E270" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -6828,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="B271">
-        <v>15011032</v>
+        <v>15011004</v>
       </c>
       <c r="C271" t="s">
         <v>247</v>
       </c>
       <c r="E271" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -6844,39 +6875,18 @@
       </c>
       <c r="H271" s="5"/>
     </row>
-    <row r="272" customFormat="1" spans="1:8">
-      <c r="A272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272">
-        <v>15011033</v>
-      </c>
-      <c r="C272" t="s">
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>15011021</v>
+      </c>
+      <c r="C273" t="s">
         <v>248</v>
       </c>
-      <c r="E272" t="s">
-        <v>246</v>
-      </c>
-      <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272">
-        <v>6</v>
-      </c>
-      <c r="H272" s="5"/>
-    </row>
-    <row r="273" customFormat="1" spans="1:8">
-      <c r="A273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273">
-        <v>15011034</v>
-      </c>
-      <c r="C273" t="s">
-        <v>249</v>
-      </c>
       <c r="E273" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F273" t="s">
         <v>20</v>
@@ -6886,39 +6896,21 @@
       </c>
       <c r="H273" s="5"/>
     </row>
-    <row r="274" customFormat="1" spans="1:8">
-      <c r="A274" t="s">
-        <v>0</v>
-      </c>
-      <c r="B274">
-        <v>15011035</v>
-      </c>
-      <c r="C274" t="s">
+    <row r="274" spans="8:8">
+      <c r="H274" s="5"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>15011031</v>
+      </c>
+      <c r="C275" t="s">
+        <v>249</v>
+      </c>
+      <c r="E275" t="s">
         <v>250</v>
-      </c>
-      <c r="E274" t="s">
-        <v>246</v>
-      </c>
-      <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274">
-        <v>6</v>
-      </c>
-      <c r="H274" s="5"/>
-    </row>
-    <row r="275" customFormat="1" spans="1:8">
-      <c r="A275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B275">
-        <v>15011036</v>
-      </c>
-      <c r="C275" t="s">
-        <v>251</v>
-      </c>
-      <c r="E275" t="s">
-        <v>246</v>
       </c>
       <c r="F275" t="s">
         <v>20</v>
@@ -6928,18 +6920,18 @@
       </c>
       <c r="H275" s="5"/>
     </row>
-    <row r="276" customFormat="1" spans="1:8">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>0</v>
       </c>
       <c r="B276">
-        <v>15011037</v>
+        <v>15011032</v>
       </c>
       <c r="C276" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E276" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F276" t="s">
         <v>20</v>
@@ -6954,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="B277">
-        <v>15011038</v>
+        <v>15011033</v>
       </c>
       <c r="C277" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E277" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F277" t="s">
         <v>20</v>
@@ -6970,127 +6962,145 @@
       </c>
       <c r="H277" s="5"/>
     </row>
-    <row r="278" spans="8:8">
+    <row r="278" customFormat="1" spans="1:8">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>15011034</v>
+      </c>
+      <c r="C278" t="s">
+        <v>253</v>
+      </c>
+      <c r="E278" t="s">
+        <v>250</v>
+      </c>
+      <c r="F278" t="s">
+        <v>20</v>
+      </c>
+      <c r="G278">
+        <v>6</v>
+      </c>
       <c r="H278" s="5"/>
     </row>
-    <row r="279" spans="8:8">
+    <row r="279" customFormat="1" spans="1:8">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>15011035</v>
+      </c>
+      <c r="C279" t="s">
+        <v>254</v>
+      </c>
+      <c r="E279" t="s">
+        <v>250</v>
+      </c>
+      <c r="F279" t="s">
+        <v>20</v>
+      </c>
+      <c r="G279">
+        <v>6</v>
+      </c>
       <c r="H279" s="5"/>
     </row>
-    <row r="280" spans="8:8">
+    <row r="280" customFormat="1" spans="1:8">
+      <c r="A280" t="s">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>15011036</v>
+      </c>
+      <c r="C280" t="s">
+        <v>255</v>
+      </c>
+      <c r="E280" t="s">
+        <v>250</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+      <c r="G280">
+        <v>6</v>
+      </c>
       <c r="H280" s="5"/>
     </row>
-    <row r="281" spans="8:8">
+    <row r="281" customFormat="1" spans="1:8">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>15011037</v>
+      </c>
+      <c r="C281" t="s">
+        <v>256</v>
+      </c>
+      <c r="E281" t="s">
+        <v>250</v>
+      </c>
+      <c r="F281" t="s">
+        <v>20</v>
+      </c>
+      <c r="G281">
+        <v>6</v>
+      </c>
       <c r="H281" s="5"/>
     </row>
-    <row r="282" spans="8:8">
+    <row r="282" customFormat="1" spans="1:8">
+      <c r="A282" t="s">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>15011038</v>
+      </c>
+      <c r="C282" t="s">
+        <v>257</v>
+      </c>
+      <c r="E282" t="s">
+        <v>250</v>
+      </c>
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+      <c r="G282">
+        <v>6</v>
+      </c>
       <c r="H282" s="5"/>
     </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>0</v>
-      </c>
-      <c r="B283">
+    <row r="283" spans="8:8">
+      <c r="H283" s="5"/>
+    </row>
+    <row r="284" spans="8:8">
+      <c r="H284" s="5"/>
+    </row>
+    <row r="285" spans="8:8">
+      <c r="H285" s="5"/>
+    </row>
+    <row r="286" spans="8:8">
+      <c r="H286" s="5"/>
+    </row>
+    <row r="287" spans="8:8">
+      <c r="H287" s="5"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288">
         <v>15011101</v>
       </c>
-      <c r="C283" t="s">
-        <v>254</v>
-      </c>
-      <c r="E283" t="s">
-        <v>246</v>
-      </c>
-      <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283">
+      <c r="C288" t="s">
+        <v>258</v>
+      </c>
+      <c r="E288" t="s">
+        <v>250</v>
+      </c>
+      <c r="F288" t="s">
+        <v>20</v>
+      </c>
+      <c r="G288">
         <v>6</v>
       </c>
-      <c r="H283" s="5"/>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>0</v>
-      </c>
-      <c r="B284">
-        <v>15011102</v>
-      </c>
-      <c r="C284" t="s">
-        <v>255</v>
-      </c>
-      <c r="E284" t="s">
-        <v>246</v>
-      </c>
-      <c r="F284" t="s">
-        <v>20</v>
-      </c>
-      <c r="G284">
-        <v>6</v>
-      </c>
-      <c r="H284" s="5"/>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285">
-        <v>15011103</v>
-      </c>
-      <c r="C285" t="s">
-        <v>256</v>
-      </c>
-      <c r="E285" t="s">
-        <v>246</v>
-      </c>
-      <c r="F285" t="s">
-        <v>20</v>
-      </c>
-      <c r="G285">
-        <v>6</v>
-      </c>
-      <c r="H285" s="5"/>
-    </row>
-    <row r="286" customFormat="1" spans="1:8">
-      <c r="A286" t="s">
-        <v>0</v>
-      </c>
-      <c r="B286">
-        <v>15011104</v>
-      </c>
-      <c r="C286" t="s">
-        <v>257</v>
-      </c>
-      <c r="E286" t="s">
-        <v>246</v>
-      </c>
-      <c r="F286" t="s">
-        <v>20</v>
-      </c>
-      <c r="G286">
-        <v>6</v>
-      </c>
-      <c r="H286" s="5"/>
-    </row>
-    <row r="287" customFormat="1" spans="1:8">
-      <c r="A287" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287">
-        <v>15011105</v>
-      </c>
-      <c r="C287" t="s">
-        <v>258</v>
-      </c>
-      <c r="E287" t="s">
-        <v>246</v>
-      </c>
-      <c r="F287" t="s">
-        <v>20</v>
-      </c>
-      <c r="G287">
-        <v>6</v>
-      </c>
-      <c r="H287" s="5"/>
-    </row>
-    <row r="288" spans="8:8">
       <c r="H288" s="5"/>
     </row>
     <row r="289" spans="1:8">
@@ -7098,13 +7108,13 @@
         <v>0</v>
       </c>
       <c r="B289">
-        <v>15012001</v>
+        <v>15011102</v>
       </c>
       <c r="C289" t="s">
         <v>259</v>
       </c>
       <c r="E289" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F289" t="s">
         <v>20</v>
@@ -7114,18 +7124,60 @@
       </c>
       <c r="H289" s="5"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>15011103</v>
+      </c>
+      <c r="C290" t="s">
+        <v>260</v>
+      </c>
+      <c r="E290" t="s">
+        <v>250</v>
+      </c>
+      <c r="F290" t="s">
+        <v>20</v>
+      </c>
+      <c r="G290">
+        <v>6</v>
+      </c>
+      <c r="H290" s="5"/>
+    </row>
+    <row r="291" customFormat="1" spans="1:8">
+      <c r="A291" t="s">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>15011104</v>
+      </c>
+      <c r="C291" t="s">
+        <v>261</v>
+      </c>
+      <c r="E291" t="s">
+        <v>250</v>
+      </c>
+      <c r="F291" t="s">
+        <v>20</v>
+      </c>
+      <c r="G291">
+        <v>6</v>
+      </c>
+      <c r="H291" s="5"/>
+    </row>
+    <row r="292" customFormat="1" spans="1:8">
       <c r="A292" t="s">
         <v>0</v>
       </c>
       <c r="B292">
-        <v>15013001</v>
+        <v>15011105</v>
       </c>
       <c r="C292" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E292" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F292" t="s">
         <v>20</v>
@@ -7135,83 +7187,128 @@
       </c>
       <c r="H292" s="5"/>
     </row>
-    <row r="295" spans="1:7">
-      <c r="A295" t="s">
-        <v>0</v>
-      </c>
-      <c r="B295">
-        <v>15014001</v>
-      </c>
-      <c r="C295" t="s">
-        <v>261</v>
-      </c>
-      <c r="E295" t="s">
-        <v>262</v>
-      </c>
-      <c r="F295" t="s">
+    <row r="293" spans="8:8">
+      <c r="H293" s="5"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>15012001</v>
+      </c>
+      <c r="C294" t="s">
         <v>263</v>
       </c>
-      <c r="G295">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" t="s">
-        <v>0</v>
-      </c>
-      <c r="B298">
-        <v>15015001</v>
-      </c>
-      <c r="C298" t="s">
+      <c r="E294" t="s">
+        <v>250</v>
+      </c>
+      <c r="F294" t="s">
+        <v>20</v>
+      </c>
+      <c r="G294">
+        <v>6</v>
+      </c>
+      <c r="H294" s="5"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>15013001</v>
+      </c>
+      <c r="C297" t="s">
         <v>264</v>
       </c>
-      <c r="E298" t="s">
-        <v>265</v>
-      </c>
-      <c r="F298" t="s">
-        <v>266</v>
-      </c>
-      <c r="G298">
-        <v>5</v>
-      </c>
+      <c r="E297" t="s">
+        <v>250</v>
+      </c>
+      <c r="F297" t="s">
+        <v>20</v>
+      </c>
+      <c r="G297">
+        <v>6</v>
+      </c>
+      <c r="H297" s="5"/>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>0</v>
       </c>
       <c r="B300">
+        <v>15014001</v>
+      </c>
+      <c r="C300" t="s">
+        <v>265</v>
+      </c>
+      <c r="E300" t="s">
+        <v>266</v>
+      </c>
+      <c r="F300" t="s">
+        <v>267</v>
+      </c>
+      <c r="G300">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>15015001</v>
+      </c>
+      <c r="C303" t="s">
+        <v>268</v>
+      </c>
+      <c r="E303" t="s">
+        <v>269</v>
+      </c>
+      <c r="F303" t="s">
+        <v>270</v>
+      </c>
+      <c r="G303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305">
         <v>15015100</v>
       </c>
-      <c r="C300" t="s">
-        <v>267</v>
-      </c>
-      <c r="E300" t="s">
-        <v>265</v>
-      </c>
-      <c r="F300" t="s">
-        <v>266</v>
-      </c>
-      <c r="G300">
+      <c r="C305" t="s">
+        <v>271</v>
+      </c>
+      <c r="E305" t="s">
+        <v>269</v>
+      </c>
+      <c r="F305" t="s">
+        <v>270</v>
+      </c>
+      <c r="G305">
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
-      <c r="A301" t="s">
-        <v>0</v>
-      </c>
-      <c r="B301">
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306">
         <v>15015101</v>
       </c>
-      <c r="C301" t="s">
-        <v>268</v>
-      </c>
-      <c r="E301" t="s">
-        <v>265</v>
-      </c>
-      <c r="F301" t="s">
-        <v>266</v>
-      </c>
-      <c r="G301">
+      <c r="C306" t="s">
+        <v>272</v>
+      </c>
+      <c r="E306" t="s">
+        <v>269</v>
+      </c>
+      <c r="F306" t="s">
+        <v>270</v>
+      </c>
+      <c r="G306">
         <v>5</v>
       </c>
     </row>
@@ -7232,7 +7329,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7249,7 +7346,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/data_config/ResourceConfig.xlsx
+++ b/Config/data_config/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16830" windowHeight="11700"/>
+    <workbookView windowWidth="24660" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="274">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>BattleReviveUI</t>
+  </si>
+  <si>
+    <t>BattleEmbattleUI</t>
   </si>
   <si>
     <t>BattleReplaceSkillUI</t>
@@ -1885,10 +1888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H306"/>
+  <dimension ref="A1:H307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A132" sqref="$A132:$XFD138"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2336,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>15000501</v>
+        <v>15000017</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2358,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>15000502</v>
+        <v>15000501</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>37</v>
@@ -2375,72 +2378,86 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="3:8">
-      <c r="C22" s="2"/>
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>15000502</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:8">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    <row r="23" ht="15" customHeight="1" spans="3:8">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:8">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>15001001</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="3:8">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:8">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+    <row r="25" ht="15" customHeight="1" spans="3:8">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:8">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>15002001</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="3:8">
-      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="3:8">
@@ -2475,26 +2492,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:8">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>15003001</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="31" ht="15" customHeight="1" spans="3:8">
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:8">
@@ -2502,17 +2505,17 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>15003002</v>
+        <v>15003001</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -2524,17 +2527,17 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>15003003</v>
+        <v>15003002</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -2546,17 +2549,17 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>15003004</v>
+        <v>15003003</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -2568,53 +2571,51 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>15003005</v>
+        <v>15003004</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="3:8">
-      <c r="C36" s="2"/>
+    <row r="36" ht="15" customHeight="1" spans="1:8">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>15003005</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" ht="15" customHeight="1" spans="1:8">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>15003101</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2</v>
-      </c>
+    <row r="37" ht="15" customHeight="1" spans="3:8">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:8">
@@ -2622,17 +2623,19 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>15003102</v>
+        <v>15003101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -2644,17 +2647,17 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>15003103</v>
+        <v>15003102</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -2666,17 +2669,17 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>15003104</v>
+        <v>15003103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" s="2">
         <v>2</v>
@@ -2688,81 +2691,81 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>15003105</v>
+        <v>15003104</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" s="2">
         <v>2</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" ht="15" customHeight="1" spans="1:8">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
-        <v>15003106</v>
+        <v>15003105</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="1:8">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>15003107</v>
+        <v>15003106</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
       </c>
-      <c r="H43" s="5"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:8">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
-        <v>15003108</v>
+        <v>15003107</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" s="2">
         <v>2</v>
@@ -2774,17 +2777,17 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>15003109</v>
+        <v>15003108</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" s="2">
         <v>2</v>
@@ -2796,17 +2799,17 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>15003110</v>
+        <v>15003109</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46" s="2">
         <v>2</v>
@@ -2818,17 +2821,17 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>15003111</v>
+        <v>15003110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
@@ -2840,17 +2843,17 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>15003112</v>
+        <v>15003111</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" s="2">
         <v>2</v>
@@ -2862,17 +2865,17 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>15003113</v>
+        <v>15003112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" s="2">
         <v>2</v>
@@ -2884,17 +2887,17 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>15003114</v>
+        <v>15003113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -2906,17 +2909,17 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>15003115</v>
+        <v>15003114</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -2928,17 +2931,17 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>15003116</v>
+        <v>15003115</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -2950,17 +2953,17 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>15003117</v>
+        <v>15003116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -2972,17 +2975,17 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>15003118</v>
+        <v>15003117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -2994,17 +2997,17 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>15003119</v>
+        <v>15003118</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -3016,17 +3019,17 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>15003120</v>
+        <v>15003119</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -3038,17 +3041,17 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>15003121</v>
+        <v>15003120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
@@ -3060,17 +3063,17 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>15003122</v>
+        <v>15003121</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -3082,17 +3085,17 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>15003123</v>
+        <v>15003122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -3104,17 +3107,17 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>15003124</v>
+        <v>15003123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" s="2">
         <v>2</v>
@@ -3126,17 +3129,17 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>15003125</v>
+        <v>15003124</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
@@ -3148,29 +3151,43 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>15003126</v>
+        <v>15003125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" ht="15" customHeight="1" spans="3:8">
-      <c r="C63" s="2"/>
+    <row r="63" ht="15" customHeight="1" spans="1:8">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>15003126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2</v>
+      </c>
       <c r="H63" s="5"/>
     </row>
     <row r="64" ht="15" customHeight="1" spans="3:8">
@@ -3181,28 +3198,12 @@
       <c r="G64" s="2"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" ht="15" customHeight="1" spans="1:8">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>15003201</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2</v>
-      </c>
+    <row r="65" ht="15" customHeight="1" spans="3:8">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="5"/>
     </row>
     <row r="66" ht="15" customHeight="1" spans="1:8">
@@ -3210,17 +3211,19 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>15003202</v>
+        <v>15003201</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G66" s="2">
         <v>2</v>
@@ -3232,17 +3235,17 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>15003203</v>
+        <v>15003202</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G67" s="2">
         <v>2</v>
@@ -3254,17 +3257,17 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>15003204</v>
+        <v>15003203</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -3276,17 +3279,17 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>15003205</v>
+        <v>15003204</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G69" s="2">
         <v>2</v>
@@ -3298,17 +3301,17 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>15003206</v>
+        <v>15003205</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" s="2">
         <v>2</v>
@@ -3320,17 +3323,17 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>15003207</v>
+        <v>15003206</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
@@ -3342,17 +3345,17 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>15003208</v>
+        <v>15003207</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G72" s="2">
         <v>2</v>
@@ -3364,17 +3367,17 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>15003209</v>
+        <v>15003208</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73" s="2">
         <v>2</v>
@@ -3386,17 +3389,17 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>15003210</v>
+        <v>15003209</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" s="2">
         <v>2</v>
@@ -3408,17 +3411,17 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>15003211</v>
+        <v>15003210</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" s="2">
         <v>2</v>
@@ -3430,17 +3433,17 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>15003212</v>
+        <v>15003211</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" s="2">
         <v>2</v>
@@ -3452,17 +3455,17 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>15003213</v>
+        <v>15003212</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77" s="2">
         <v>2</v>
@@ -3474,17 +3477,17 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>15003214</v>
+        <v>15003213</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78" s="2">
         <v>2</v>
@@ -3496,17 +3499,17 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>15003215</v>
+        <v>15003214</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79" s="2">
         <v>2</v>
@@ -3518,17 +3521,17 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>15003216</v>
+        <v>15003215</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G80" s="2">
         <v>2</v>
@@ -3540,17 +3543,17 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>15003217</v>
+        <v>15003216</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -3562,17 +3565,17 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>15003218</v>
+        <v>15003217</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
@@ -3584,17 +3587,17 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>15003219</v>
+        <v>15003218</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
@@ -3606,17 +3609,17 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>15003220</v>
+        <v>15003219</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84" s="2">
         <v>2</v>
@@ -3628,17 +3631,17 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>15003221</v>
+        <v>15003220</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
@@ -3650,17 +3653,17 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>15003222</v>
+        <v>15003221</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G86" s="2">
         <v>2</v>
@@ -3672,17 +3675,17 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>15003223</v>
+        <v>15003222</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" s="2">
         <v>2</v>
@@ -3694,17 +3697,17 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>15003224</v>
+        <v>15003223</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88" s="2">
         <v>2</v>
@@ -3716,17 +3719,17 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>15003225</v>
+        <v>15003224</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89" s="2">
         <v>2</v>
@@ -3738,17 +3741,17 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>15003226</v>
+        <v>15003225</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90" s="2">
         <v>2</v>
@@ -3760,17 +3763,17 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>15003227</v>
+        <v>15003226</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" s="2">
         <v>2</v>
@@ -3782,17 +3785,17 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>15003228</v>
+        <v>15003227</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G92" s="2">
         <v>2</v>
@@ -3804,17 +3807,17 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>15003229</v>
+        <v>15003228</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G93" s="2">
         <v>2</v>
@@ -3826,17 +3829,17 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>15003230</v>
+        <v>15003229</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G94" s="2">
         <v>2</v>
@@ -3848,17 +3851,17 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>15003231</v>
+        <v>15003230</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" s="2">
         <v>2</v>
@@ -3870,17 +3873,17 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>15003232</v>
+        <v>15003231</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G96" s="2">
         <v>2</v>
@@ -3892,17 +3895,17 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15003233</v>
+        <v>15003232</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G97" s="2">
         <v>2</v>
@@ -3914,17 +3917,17 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>15003234</v>
+        <v>15003233</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" s="2">
         <v>2</v>
@@ -3936,17 +3939,17 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>15003235</v>
+        <v>15003234</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G99" s="2">
         <v>2</v>
@@ -3958,17 +3961,17 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>15003236</v>
+        <v>15003235</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100" s="2">
         <v>2</v>
@@ -3980,17 +3983,17 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>15003237</v>
+        <v>15003236</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101" s="2">
         <v>2</v>
@@ -4002,17 +4005,17 @@
         <v>0</v>
       </c>
       <c r="B102">
-        <v>15003238</v>
+        <v>15003237</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G102" s="2">
         <v>2</v>
@@ -4024,17 +4027,17 @@
         <v>0</v>
       </c>
       <c r="B103">
-        <v>15003239</v>
+        <v>15003238</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" s="2">
         <v>2</v>
@@ -4046,17 +4049,17 @@
         <v>0</v>
       </c>
       <c r="B104">
-        <v>15003240</v>
+        <v>15003239</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G104" s="2">
         <v>2</v>
@@ -4068,17 +4071,17 @@
         <v>0</v>
       </c>
       <c r="B105">
-        <v>15003241</v>
+        <v>15003240</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105" s="2">
         <v>2</v>
@@ -4090,17 +4093,17 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>15003242</v>
+        <v>15003241</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G106" s="2">
         <v>2</v>
@@ -4112,17 +4115,17 @@
         <v>0</v>
       </c>
       <c r="B107">
-        <v>15003243</v>
+        <v>15003242</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G107" s="2">
         <v>2</v>
@@ -4134,17 +4137,17 @@
         <v>0</v>
       </c>
       <c r="B108">
-        <v>15003244</v>
+        <v>15003243</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G108" s="2">
         <v>2</v>
@@ -4156,17 +4159,17 @@
         <v>0</v>
       </c>
       <c r="B109">
-        <v>15003245</v>
+        <v>15003244</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109" s="2">
         <v>2</v>
@@ -4178,17 +4181,17 @@
         <v>0</v>
       </c>
       <c r="B110">
-        <v>15003246</v>
+        <v>15003245</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G110" s="2">
         <v>2</v>
@@ -4200,17 +4203,17 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <v>15003247</v>
+        <v>15003246</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111" s="2">
         <v>2</v>
@@ -4222,17 +4225,17 @@
         <v>0</v>
       </c>
       <c r="B112">
-        <v>15003248</v>
+        <v>15003247</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
@@ -4244,17 +4247,17 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>15003249</v>
+        <v>15003248</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G113" s="2">
         <v>2</v>
@@ -4266,17 +4269,17 @@
         <v>0</v>
       </c>
       <c r="B114">
-        <v>15003250</v>
+        <v>15003249</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G114" s="2">
         <v>2</v>
@@ -4288,17 +4291,17 @@
         <v>0</v>
       </c>
       <c r="B115">
-        <v>15003251</v>
+        <v>15003250</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115" s="2">
         <v>2</v>
@@ -4310,17 +4313,17 @@
         <v>0</v>
       </c>
       <c r="B116">
-        <v>15003252</v>
+        <v>15003251</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116" s="2">
         <v>2</v>
@@ -4332,17 +4335,17 @@
         <v>0</v>
       </c>
       <c r="B117">
-        <v>15003253</v>
+        <v>15003252</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117" s="2">
         <v>2</v>
@@ -4354,17 +4357,17 @@
         <v>0</v>
       </c>
       <c r="B118">
-        <v>15003254</v>
+        <v>15003253</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G118" s="2">
         <v>2</v>
@@ -4376,17 +4379,17 @@
         <v>0</v>
       </c>
       <c r="B119">
-        <v>15003255</v>
+        <v>15003254</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G119" s="2">
         <v>2</v>
@@ -4398,17 +4401,17 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>15003256</v>
+        <v>15003255</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G120" s="2">
         <v>2</v>
@@ -4420,17 +4423,17 @@
         <v>0</v>
       </c>
       <c r="B121">
-        <v>15003257</v>
+        <v>15003256</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G121" s="2">
         <v>2</v>
@@ -4442,17 +4445,17 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>15003258</v>
+        <v>15003257</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G122" s="2">
         <v>2</v>
@@ -4464,17 +4467,17 @@
         <v>0</v>
       </c>
       <c r="B123">
-        <v>15003259</v>
+        <v>15003258</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G123" s="2">
         <v>2</v>
@@ -4486,17 +4489,17 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>15003260</v>
+        <v>15003259</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" s="2">
         <v>2</v>
@@ -4508,29 +4511,43 @@
         <v>0</v>
       </c>
       <c r="B125">
-        <v>15003261</v>
+        <v>15003260</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125" s="2">
         <v>2</v>
       </c>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" ht="15" customHeight="1" spans="3:8">
-      <c r="C126" s="2"/>
+    <row r="126" ht="15" customHeight="1" spans="1:8">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>15003261</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="E126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" s="2">
+        <v>2</v>
+      </c>
       <c r="H126" s="5"/>
     </row>
     <row r="127" ht="15" customHeight="1" spans="3:8">
@@ -4557,28 +4574,12 @@
       <c r="G129" s="2"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" ht="15" customHeight="1" spans="1:8">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>15003401</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G130" s="2">
-        <v>2</v>
-      </c>
+    <row r="130" ht="15" customHeight="1" spans="3:8">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="5"/>
     </row>
     <row r="131" ht="15" customHeight="1" spans="1:8">
@@ -4586,31 +4587,47 @@
         <v>0</v>
       </c>
       <c r="B131">
+        <v>15003401</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" s="2">
+        <v>2</v>
+      </c>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" spans="1:8">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
         <v>15003402</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G131" s="2">
+      <c r="F132" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="2">
         <v>3</v>
       </c>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" ht="15" customHeight="1" spans="3:8">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" ht="15" customHeight="1" spans="3:8">
@@ -4693,28 +4710,12 @@
       <c r="G142" s="2"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" ht="15" customHeight="1" spans="1:8">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>15003501</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G143" s="2">
-        <v>2</v>
-      </c>
+    <row r="143" ht="15" customHeight="1" spans="3:8">
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" ht="15" customHeight="1" spans="1:8">
@@ -4722,19 +4723,19 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>15003502</v>
+        <v>15003501</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G144" s="2">
         <v>2</v>
@@ -4746,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>15003503</v>
+        <v>15003502</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G145" s="2">
         <v>2</v>
@@ -4770,19 +4771,19 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>15003504</v>
+        <v>15003503</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146" s="2">
         <v>2</v>
@@ -4794,19 +4795,19 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>15003505</v>
+        <v>15003504</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G147" s="2">
         <v>2</v>
@@ -4818,19 +4819,19 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>15003506</v>
+        <v>15003505</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G148" s="2">
         <v>2</v>
@@ -4842,19 +4843,19 @@
         <v>0</v>
       </c>
       <c r="B149">
-        <v>15003507</v>
+        <v>15003506</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G149" s="2">
         <v>2</v>
@@ -4866,19 +4867,19 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>15003508</v>
+        <v>15003507</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150" s="2">
         <v>2</v>
@@ -4890,55 +4891,55 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>15003509</v>
+        <v>15003508</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G151" s="2">
+        <v>2</v>
+      </c>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" ht="15" customHeight="1" spans="1:8">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>15003509</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G151" s="2">
-        <v>2</v>
-      </c>
-      <c r="H151" s="5"/>
-    </row>
-    <row r="152" ht="15" customHeight="1" spans="3:8">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
+      <c r="E152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="2">
+        <v>2</v>
+      </c>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" ht="15" customHeight="1" spans="1:8">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>15003601</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G153" s="2">
-        <v>2</v>
-      </c>
+    <row r="153" ht="15" customHeight="1" spans="3:8">
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" ht="15" customHeight="1" spans="1:8">
@@ -4946,19 +4947,19 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>15003602</v>
+        <v>15003601</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G154" s="2">
         <v>2</v>
@@ -4970,19 +4971,19 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>15003603</v>
+        <v>15003602</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G155" s="2">
         <v>2</v>
@@ -4994,31 +4995,47 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>15003604</v>
+        <v>15003603</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="2">
+        <v>2</v>
+      </c>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" ht="15" customHeight="1" spans="1:8">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>15003604</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G156" s="2">
-        <v>2</v>
-      </c>
-      <c r="H156" s="5"/>
-    </row>
-    <row r="157" ht="15" customHeight="1" spans="3:8">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
+      <c r="E157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="2">
+        <v>2</v>
+      </c>
       <c r="H157" s="5"/>
     </row>
     <row r="158" ht="15" customHeight="1" spans="3:8">
@@ -5141,28 +5158,12 @@
       <c r="G172" s="2"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" ht="15" customHeight="1" spans="1:8">
-      <c r="A173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173">
-        <v>15003701</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G173" s="2">
-        <v>2</v>
-      </c>
+    <row r="173" ht="15" customHeight="1" spans="3:8">
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
       <c r="H173" s="5"/>
     </row>
     <row r="174" ht="15" customHeight="1" spans="1:8">
@@ -5170,19 +5171,19 @@
         <v>0</v>
       </c>
       <c r="B174">
-        <v>15003702</v>
+        <v>15003701</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G174" s="2">
         <v>2</v>
@@ -5194,19 +5195,19 @@
         <v>0</v>
       </c>
       <c r="B175">
-        <v>15003703</v>
+        <v>15003702</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G175" s="2">
         <v>2</v>
@@ -5218,19 +5219,19 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>15003704</v>
+        <v>15003703</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G176" s="2">
         <v>2</v>
@@ -5242,19 +5243,19 @@
         <v>0</v>
       </c>
       <c r="B177">
-        <v>15003705</v>
+        <v>15003704</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177" s="2">
         <v>2</v>
@@ -5266,55 +5267,55 @@
         <v>0</v>
       </c>
       <c r="B178">
+        <v>15003705</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" s="2">
+        <v>2</v>
+      </c>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" ht="15" customHeight="1" spans="1:8">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179">
         <v>15003706</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G178" s="2">
-        <v>2</v>
-      </c>
-      <c r="H178" s="5"/>
-    </row>
-    <row r="179" ht="15" customHeight="1" spans="3:8">
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="D179" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G179" s="2">
+        <v>2</v>
+      </c>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" ht="15" customHeight="1" spans="1:8">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180">
-        <v>15003751</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G180" s="2">
-        <v>2</v>
-      </c>
+    <row r="180" ht="15" customHeight="1" spans="3:8">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="5"/>
     </row>
     <row r="181" ht="15" customHeight="1" spans="1:8">
@@ -5322,19 +5323,19 @@
         <v>0</v>
       </c>
       <c r="B181">
-        <v>15003752</v>
+        <v>15003751</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G181" s="2">
         <v>2</v>
@@ -5346,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="B182">
-        <v>15003753</v>
+        <v>15003752</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G182" s="2">
         <v>2</v>
@@ -5370,19 +5371,19 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>15003754</v>
+        <v>15003753</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G183" s="2">
         <v>2</v>
@@ -5394,31 +5395,47 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <v>15003755</v>
+        <v>15003754</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G184" s="2">
+        <v>2</v>
+      </c>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" ht="15" customHeight="1" spans="1:8">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>15003755</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G184" s="2">
-        <v>2</v>
-      </c>
-      <c r="H184" s="5"/>
-    </row>
-    <row r="185" ht="15" customHeight="1" spans="3:8">
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="2">
+        <v>2</v>
+      </c>
       <c r="H185" s="5"/>
     </row>
     <row r="186" ht="15" customHeight="1" spans="3:8">
@@ -5437,28 +5454,12 @@
       <c r="G187" s="2"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" ht="15" customHeight="1" spans="1:8">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188">
-        <v>15004001</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G188" s="2">
-        <v>2</v>
-      </c>
+    <row r="188" ht="15" customHeight="1" spans="3:8">
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
       <c r="H188" s="5"/>
     </row>
     <row r="189" ht="15" customHeight="1" spans="1:8">
@@ -5466,19 +5467,19 @@
         <v>0</v>
       </c>
       <c r="B189">
-        <v>15004002</v>
+        <v>15004001</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G189" s="2">
         <v>2</v>
@@ -5490,31 +5491,47 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <v>15004003</v>
+        <v>15004002</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G190" s="2">
+        <v>2</v>
+      </c>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" ht="15" customHeight="1" spans="1:8">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>15004003</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G190" s="2">
-        <v>2</v>
-      </c>
-      <c r="H190" s="5"/>
-    </row>
-    <row r="191" ht="15" customHeight="1" spans="3:8">
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
+      <c r="E191" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191" s="2">
+        <v>2</v>
+      </c>
       <c r="H191" s="5"/>
     </row>
     <row r="192" ht="15" customHeight="1" spans="3:8">
@@ -5557,28 +5574,12 @@
       <c r="G196" s="2"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" ht="15" customHeight="1" spans="1:8">
-      <c r="A197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197">
-        <v>15005000</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G197" s="2">
-        <v>2</v>
-      </c>
+    <row r="197" ht="15" customHeight="1" spans="3:8">
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" ht="15" customHeight="1" spans="1:8">
@@ -5586,19 +5587,19 @@
         <v>0</v>
       </c>
       <c r="B198">
-        <v>15005001</v>
+        <v>15005000</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G198" s="2">
         <v>2</v>
@@ -5610,19 +5611,19 @@
         <v>0</v>
       </c>
       <c r="B199">
-        <v>15005002</v>
+        <v>15005001</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G199" s="2">
         <v>2</v>
@@ -5634,31 +5635,47 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <v>15005003</v>
+        <v>15005002</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E200" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" s="2">
+        <v>2</v>
+      </c>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" ht="15" customHeight="1" spans="1:8">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>15005003</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G200" s="2">
-        <v>2</v>
-      </c>
-      <c r="H200" s="5"/>
-    </row>
-    <row r="201" ht="15" customHeight="1" spans="3:8">
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
+      <c r="E201" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G201" s="2">
+        <v>2</v>
+      </c>
       <c r="H201" s="5"/>
     </row>
     <row r="202" ht="15" customHeight="1" spans="3:8">
@@ -5677,64 +5694,51 @@
       <c r="G203" s="2"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" ht="17" customHeight="1" spans="1:8">
-      <c r="A204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204">
+    <row r="204" ht="15" customHeight="1" spans="3:8">
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" ht="17" customHeight="1" spans="1:8">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205">
         <v>15006001</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="D205" s="2"/>
+      <c r="E205" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G204" s="2">
+      <c r="F205" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G205" s="2">
         <v>3</v>
       </c>
-      <c r="H204" s="5"/>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205">
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206">
         <v>15006002</v>
       </c>
-      <c r="C205" t="s">
-        <v>194</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="C206" t="s">
         <v>195</v>
       </c>
-      <c r="F205" t="s">
+      <c r="E206" t="s">
         <v>196</v>
       </c>
-      <c r="G205">
-        <v>3</v>
-      </c>
-      <c r="H205" s="5"/>
-    </row>
-    <row r="206" ht="17" customHeight="1" spans="1:8">
-      <c r="A206" t="s">
-        <v>0</v>
-      </c>
-      <c r="B206">
-        <v>15006003</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="F206" t="s">
         <v>197</v>
-      </c>
-      <c r="E206" t="s">
-        <v>195</v>
-      </c>
-      <c r="F206" t="s">
-        <v>196</v>
       </c>
       <c r="G206">
         <v>3</v>
@@ -5746,28 +5750,41 @@
         <v>0</v>
       </c>
       <c r="B207">
-        <v>15006004</v>
+        <v>15006003</v>
       </c>
       <c r="C207" t="s">
         <v>198</v>
       </c>
       <c r="E207" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F207" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G207">
         <v>3</v>
       </c>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" ht="17" customHeight="1" spans="3:8">
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
+    <row r="208" ht="17" customHeight="1" spans="1:8">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>15006004</v>
+      </c>
+      <c r="C208" t="s">
+        <v>199</v>
+      </c>
+      <c r="E208" t="s">
+        <v>196</v>
+      </c>
+      <c r="F208" t="s">
+        <v>197</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
       <c r="H208" s="5"/>
     </row>
     <row r="209" ht="17" customHeight="1" spans="3:8">
@@ -5794,26 +5811,12 @@
       <c r="G211" s="2"/>
       <c r="H211" s="5"/>
     </row>
-    <row r="212" ht="17" customHeight="1" spans="1:8">
-      <c r="A212" t="s">
-        <v>0</v>
-      </c>
-      <c r="B212">
-        <v>15008001</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>199</v>
-      </c>
+    <row r="212" ht="17" customHeight="1" spans="3:8">
+      <c r="C212" s="2"/>
       <c r="D212" s="2"/>
-      <c r="E212" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" s="2">
-        <v>4</v>
-      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
       <c r="H212" s="5"/>
     </row>
     <row r="213" ht="17" customHeight="1" spans="1:8">
@@ -5821,14 +5824,14 @@
         <v>0</v>
       </c>
       <c r="B213">
-        <v>15008002</v>
+        <v>15008001</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -5843,14 +5846,14 @@
         <v>0</v>
       </c>
       <c r="B214">
-        <v>15008003</v>
+        <v>15008002</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>20</v>
@@ -5865,14 +5868,14 @@
         <v>0</v>
       </c>
       <c r="B215">
-        <v>15008004</v>
+        <v>15008003</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>20</v>
@@ -5887,14 +5890,14 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>15008005</v>
+        <v>15008004</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>20</v>
@@ -5909,14 +5912,14 @@
         <v>0</v>
       </c>
       <c r="B217">
-        <v>15008006</v>
+        <v>15008005</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5931,14 +5934,14 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>15008007</v>
+        <v>15008006</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5953,14 +5956,14 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>15008008</v>
+        <v>15008007</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -5975,14 +5978,14 @@
         <v>0</v>
       </c>
       <c r="B220">
-        <v>15008009</v>
+        <v>15008008</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>20</v>
@@ -5997,14 +6000,14 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>15008010</v>
+        <v>15008009</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>20</v>
@@ -6019,14 +6022,14 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>15008011</v>
+        <v>15008010</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>20</v>
@@ -6041,14 +6044,14 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>15008012</v>
+        <v>15008011</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>20</v>
@@ -6063,14 +6066,14 @@
         <v>0</v>
       </c>
       <c r="B224">
-        <v>15008013</v>
+        <v>15008012</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>20</v>
@@ -6085,14 +6088,14 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>15008014</v>
+        <v>15008013</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
@@ -6107,14 +6110,14 @@
         <v>0</v>
       </c>
       <c r="B226">
-        <v>15008015</v>
+        <v>15008014</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>20</v>
@@ -6129,14 +6132,14 @@
         <v>0</v>
       </c>
       <c r="B227">
-        <v>15008016</v>
+        <v>15008015</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>20</v>
@@ -6151,14 +6154,14 @@
         <v>0</v>
       </c>
       <c r="B228">
-        <v>15008017</v>
+        <v>15008016</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>20</v>
@@ -6173,14 +6176,14 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>15008018</v>
+        <v>15008017</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -6195,14 +6198,14 @@
         <v>0</v>
       </c>
       <c r="B230">
-        <v>15008019</v>
+        <v>15008018</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>20</v>
@@ -6217,14 +6220,14 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>15008020</v>
+        <v>15008019</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -6239,14 +6242,14 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>15008021</v>
+        <v>15008020</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>20</v>
@@ -6261,14 +6264,14 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>15008022</v>
+        <v>15008021</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>20</v>
@@ -6283,14 +6286,14 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>15008023</v>
+        <v>15008022</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>20</v>
@@ -6305,14 +6308,14 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>15008024</v>
+        <v>15008023</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>20</v>
@@ -6327,14 +6330,14 @@
         <v>0</v>
       </c>
       <c r="B236">
-        <v>15008025</v>
+        <v>15008024</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>20</v>
@@ -6349,14 +6352,14 @@
         <v>0</v>
       </c>
       <c r="B237">
-        <v>15008026</v>
+        <v>15008025</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>20</v>
@@ -6371,16 +6374,14 @@
         <v>0</v>
       </c>
       <c r="B238">
-        <v>15008027</v>
+        <v>15008026</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="D238" s="2"/>
       <c r="E238" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>20</v>
@@ -6395,16 +6396,16 @@
         <v>0</v>
       </c>
       <c r="B239">
-        <v>15008028</v>
+        <v>15008027</v>
       </c>
       <c r="C239" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E239" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>20</v>
@@ -6419,14 +6420,16 @@
         <v>0</v>
       </c>
       <c r="B240">
-        <v>15008029</v>
+        <v>15008028</v>
       </c>
       <c r="C240" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D240" s="2"/>
       <c r="E240" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>20</v>
@@ -6441,14 +6444,14 @@
         <v>0</v>
       </c>
       <c r="B241">
-        <v>15008030</v>
+        <v>15008029</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>20</v>
@@ -6463,14 +6466,14 @@
         <v>0</v>
       </c>
       <c r="B242">
-        <v>15008031</v>
+        <v>15008030</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>20</v>
@@ -6485,14 +6488,14 @@
         <v>0</v>
       </c>
       <c r="B243">
-        <v>15008032</v>
-      </c>
-      <c r="C243" t="s">
+        <v>15008031</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>20</v>
@@ -6502,12 +6505,26 @@
       </c>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" ht="17" customHeight="1" spans="3:8">
-      <c r="C244" s="2"/>
+    <row r="244" ht="17" customHeight="1" spans="1:8">
+      <c r="A244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>15008032</v>
+      </c>
+      <c r="C244" t="s">
+        <v>234</v>
+      </c>
       <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
+      <c r="E244" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" s="2">
+        <v>4</v>
+      </c>
       <c r="H244" s="5"/>
     </row>
     <row r="245" ht="17" customHeight="1" spans="3:8">
@@ -6550,26 +6567,12 @@
       <c r="G249" s="2"/>
       <c r="H249" s="5"/>
     </row>
-    <row r="250" ht="17" customHeight="1" spans="1:8">
-      <c r="A250" t="s">
-        <v>0</v>
-      </c>
-      <c r="B250">
-        <v>15008101</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>234</v>
-      </c>
+    <row r="250" ht="17" customHeight="1" spans="3:8">
+      <c r="C250" s="2"/>
       <c r="D250" s="2"/>
-      <c r="E250" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" s="2">
-        <v>4</v>
-      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
       <c r="H250" s="5"/>
     </row>
     <row r="251" ht="17" customHeight="1" spans="1:8">
@@ -6577,14 +6580,14 @@
         <v>0</v>
       </c>
       <c r="B251">
-        <v>15008102</v>
+        <v>15008101</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>20</v>
@@ -6594,34 +6597,34 @@
       </c>
       <c r="H251" s="5"/>
     </row>
-    <row r="252" ht="17" customHeight="1" spans="3:8">
-      <c r="C252" s="2"/>
+    <row r="252" ht="17" customHeight="1" spans="1:8">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>15008102</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G252" s="2">
+        <v>4</v>
+      </c>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" ht="17" customHeight="1" spans="1:8">
-      <c r="A253" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253">
-        <v>15008201</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>236</v>
-      </c>
+    <row r="253" ht="17" customHeight="1" spans="3:8">
+      <c r="C253" s="2"/>
       <c r="D253" s="2"/>
-      <c r="E253" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" s="2">
-        <v>4</v>
-      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
       <c r="H253" s="5"/>
     </row>
     <row r="254" ht="17" customHeight="1" spans="1:8">
@@ -6629,14 +6632,14 @@
         <v>0</v>
       </c>
       <c r="B254">
-        <v>15008202</v>
+        <v>15008201</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>20</v>
@@ -6651,14 +6654,14 @@
         <v>0</v>
       </c>
       <c r="B255">
-        <v>15008203</v>
+        <v>15008202</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>20</v>
@@ -6668,12 +6671,26 @@
       </c>
       <c r="H255" s="5"/>
     </row>
-    <row r="256" ht="17" customHeight="1" spans="3:8">
-      <c r="C256" s="2"/>
+    <row r="256" ht="17" customHeight="1" spans="1:8">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>15008203</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
+      <c r="E256" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G256" s="2">
+        <v>4</v>
+      </c>
       <c r="H256" s="5"/>
     </row>
     <row r="257" ht="17" customHeight="1" spans="3:8">
@@ -6716,26 +6733,12 @@
       <c r="G261" s="2"/>
       <c r="H261" s="5"/>
     </row>
-    <row r="262" ht="17" customHeight="1" spans="1:8">
-      <c r="A262" t="s">
-        <v>0</v>
-      </c>
-      <c r="B262">
-        <v>15010001</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>239</v>
-      </c>
+    <row r="262" ht="17" customHeight="1" spans="3:8">
+      <c r="C262" s="2"/>
       <c r="D262" s="2"/>
-      <c r="E262" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G262" s="2">
-        <v>5</v>
-      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
       <c r="H262" s="5"/>
     </row>
     <row r="263" ht="17" customHeight="1" spans="1:8">
@@ -6743,14 +6746,14 @@
         <v>0</v>
       </c>
       <c r="B263">
-        <v>15010002</v>
+        <v>15010001</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>20</v>
@@ -6765,14 +6768,14 @@
         <v>0</v>
       </c>
       <c r="B264">
-        <v>15010003</v>
+        <v>15010002</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>20</v>
@@ -6782,7 +6785,26 @@
       </c>
       <c r="H264" s="5"/>
     </row>
-    <row r="265" spans="8:8">
+    <row r="265" ht="17" customHeight="1" spans="1:8">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>15010003</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G265" s="2">
+        <v>5</v>
+      </c>
       <c r="H265" s="5"/>
     </row>
     <row r="266" spans="8:8">
@@ -6791,25 +6813,7 @@
     <row r="267" spans="8:8">
       <c r="H267" s="5"/>
     </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B268">
-        <v>15011001</v>
-      </c>
-      <c r="C268" t="s">
-        <v>243</v>
-      </c>
-      <c r="E268" t="s">
-        <v>244</v>
-      </c>
-      <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="G268">
-        <v>6</v>
-      </c>
+    <row r="268" spans="8:8">
       <c r="H268" s="5"/>
     </row>
     <row r="269" spans="1:8">
@@ -6817,13 +6821,13 @@
         <v>0</v>
       </c>
       <c r="B269">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="C269" t="s">
+        <v>244</v>
+      </c>
+      <c r="E269" t="s">
         <v>245</v>
-      </c>
-      <c r="E269" t="s">
-        <v>244</v>
       </c>
       <c r="F269" t="s">
         <v>20</v>
@@ -6838,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="B270">
-        <v>15011003</v>
+        <v>15011002</v>
       </c>
       <c r="C270" t="s">
         <v>246</v>
       </c>
       <c r="E270" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F270" t="s">
         <v>20</v>
@@ -6859,13 +6863,13 @@
         <v>0</v>
       </c>
       <c r="B271">
-        <v>15011004</v>
+        <v>15011003</v>
       </c>
       <c r="C271" t="s">
         <v>247</v>
       </c>
       <c r="E271" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -6875,49 +6879,49 @@
       </c>
       <c r="H271" s="5"/>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273">
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>15011004</v>
+      </c>
+      <c r="C272" t="s">
+        <v>248</v>
+      </c>
+      <c r="E272" t="s">
+        <v>245</v>
+      </c>
+      <c r="F272" t="s">
+        <v>20</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+      <c r="H272" s="5"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274">
         <v>15011021</v>
       </c>
-      <c r="C273" t="s">
-        <v>248</v>
-      </c>
-      <c r="E273" t="s">
-        <v>244</v>
-      </c>
-      <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273">
+      <c r="C274" t="s">
+        <v>249</v>
+      </c>
+      <c r="E274" t="s">
+        <v>245</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+      <c r="G274">
         <v>6</v>
       </c>
-      <c r="H273" s="5"/>
-    </row>
-    <row r="274" spans="8:8">
       <c r="H274" s="5"/>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" t="s">
-        <v>0</v>
-      </c>
-      <c r="B275">
-        <v>15011031</v>
-      </c>
-      <c r="C275" t="s">
-        <v>249</v>
-      </c>
-      <c r="E275" t="s">
-        <v>250</v>
-      </c>
-      <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275">
-        <v>6</v>
-      </c>
+    <row r="275" spans="8:8">
       <c r="H275" s="5"/>
     </row>
     <row r="276" spans="1:8">
@@ -6925,13 +6929,13 @@
         <v>0</v>
       </c>
       <c r="B276">
-        <v>15011032</v>
+        <v>15011031</v>
       </c>
       <c r="C276" t="s">
+        <v>250</v>
+      </c>
+      <c r="E276" t="s">
         <v>251</v>
-      </c>
-      <c r="E276" t="s">
-        <v>250</v>
       </c>
       <c r="F276" t="s">
         <v>20</v>
@@ -6941,18 +6945,18 @@
       </c>
       <c r="H276" s="5"/>
     </row>
-    <row r="277" customFormat="1" spans="1:8">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>0</v>
       </c>
       <c r="B277">
-        <v>15011033</v>
+        <v>15011032</v>
       </c>
       <c r="C277" t="s">
         <v>252</v>
       </c>
       <c r="E277" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F277" t="s">
         <v>20</v>
@@ -6967,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="B278">
-        <v>15011034</v>
+        <v>15011033</v>
       </c>
       <c r="C278" t="s">
         <v>253</v>
       </c>
       <c r="E278" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F278" t="s">
         <v>20</v>
@@ -6988,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="B279">
-        <v>15011035</v>
+        <v>15011034</v>
       </c>
       <c r="C279" t="s">
         <v>254</v>
       </c>
       <c r="E279" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F279" t="s">
         <v>20</v>
@@ -7009,13 +7013,13 @@
         <v>0</v>
       </c>
       <c r="B280">
-        <v>15011036</v>
+        <v>15011035</v>
       </c>
       <c r="C280" t="s">
         <v>255</v>
       </c>
       <c r="E280" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
@@ -7030,13 +7034,13 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>15011037</v>
+        <v>15011036</v>
       </c>
       <c r="C281" t="s">
         <v>256</v>
       </c>
       <c r="E281" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F281" t="s">
         <v>20</v>
@@ -7051,13 +7055,13 @@
         <v>0</v>
       </c>
       <c r="B282">
-        <v>15011038</v>
+        <v>15011037</v>
       </c>
       <c r="C282" t="s">
         <v>257</v>
       </c>
       <c r="E282" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F282" t="s">
         <v>20</v>
@@ -7067,7 +7071,25 @@
       </c>
       <c r="H282" s="5"/>
     </row>
-    <row r="283" spans="8:8">
+    <row r="283" customFormat="1" spans="1:8">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>15011038</v>
+      </c>
+      <c r="C283" t="s">
+        <v>258</v>
+      </c>
+      <c r="E283" t="s">
+        <v>251</v>
+      </c>
+      <c r="F283" t="s">
+        <v>20</v>
+      </c>
+      <c r="G283">
+        <v>6</v>
+      </c>
       <c r="H283" s="5"/>
     </row>
     <row r="284" spans="8:8">
@@ -7082,25 +7104,7 @@
     <row r="287" spans="8:8">
       <c r="H287" s="5"/>
     </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288">
-        <v>15011101</v>
-      </c>
-      <c r="C288" t="s">
-        <v>258</v>
-      </c>
-      <c r="E288" t="s">
-        <v>250</v>
-      </c>
-      <c r="F288" t="s">
-        <v>20</v>
-      </c>
-      <c r="G288">
-        <v>6</v>
-      </c>
+    <row r="288" spans="8:8">
       <c r="H288" s="5"/>
     </row>
     <row r="289" spans="1:8">
@@ -7108,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="B289">
-        <v>15011102</v>
+        <v>15011101</v>
       </c>
       <c r="C289" t="s">
         <v>259</v>
       </c>
       <c r="E289" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F289" t="s">
         <v>20</v>
@@ -7129,13 +7133,13 @@
         <v>0</v>
       </c>
       <c r="B290">
-        <v>15011103</v>
+        <v>15011102</v>
       </c>
       <c r="C290" t="s">
         <v>260</v>
       </c>
       <c r="E290" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F290" t="s">
         <v>20</v>
@@ -7145,18 +7149,18 @@
       </c>
       <c r="H290" s="5"/>
     </row>
-    <row r="291" customFormat="1" spans="1:8">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>0</v>
       </c>
       <c r="B291">
-        <v>15011104</v>
+        <v>15011103</v>
       </c>
       <c r="C291" t="s">
         <v>261</v>
       </c>
       <c r="E291" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F291" t="s">
         <v>20</v>
@@ -7171,13 +7175,13 @@
         <v>0</v>
       </c>
       <c r="B292">
-        <v>15011105</v>
+        <v>15011104</v>
       </c>
       <c r="C292" t="s">
         <v>262</v>
       </c>
       <c r="E292" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F292" t="s">
         <v>20</v>
@@ -7187,108 +7191,109 @@
       </c>
       <c r="H292" s="5"/>
     </row>
-    <row r="293" spans="8:8">
+    <row r="293" customFormat="1" spans="1:8">
+      <c r="A293" t="s">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>15011105</v>
+      </c>
+      <c r="C293" t="s">
+        <v>263</v>
+      </c>
+      <c r="E293" t="s">
+        <v>251</v>
+      </c>
+      <c r="F293" t="s">
+        <v>20</v>
+      </c>
+      <c r="G293">
+        <v>6</v>
+      </c>
       <c r="H293" s="5"/>
     </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
-        <v>0</v>
-      </c>
-      <c r="B294">
+    <row r="294" spans="8:8">
+      <c r="H294" s="5"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295">
         <v>15012001</v>
       </c>
-      <c r="C294" t="s">
-        <v>263</v>
-      </c>
-      <c r="E294" t="s">
-        <v>250</v>
-      </c>
-      <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="G294">
+      <c r="C295" t="s">
+        <v>264</v>
+      </c>
+      <c r="E295" t="s">
+        <v>251</v>
+      </c>
+      <c r="F295" t="s">
+        <v>20</v>
+      </c>
+      <c r="G295">
         <v>6</v>
       </c>
-      <c r="H294" s="5"/>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" t="s">
-        <v>0</v>
-      </c>
-      <c r="B297">
+      <c r="H295" s="5"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>0</v>
+      </c>
+      <c r="B298">
         <v>15013001</v>
       </c>
-      <c r="C297" t="s">
-        <v>264</v>
-      </c>
-      <c r="E297" t="s">
-        <v>250</v>
-      </c>
-      <c r="F297" t="s">
-        <v>20</v>
-      </c>
-      <c r="G297">
+      <c r="C298" t="s">
+        <v>265</v>
+      </c>
+      <c r="E298" t="s">
+        <v>251</v>
+      </c>
+      <c r="F298" t="s">
+        <v>20</v>
+      </c>
+      <c r="G298">
         <v>6</v>
       </c>
-      <c r="H297" s="5"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" t="s">
-        <v>0</v>
-      </c>
-      <c r="B300">
+      <c r="H298" s="5"/>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301">
         <v>15014001</v>
       </c>
-      <c r="C300" t="s">
-        <v>265</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="C301" t="s">
         <v>266</v>
       </c>
-      <c r="F300" t="s">
+      <c r="E301" t="s">
         <v>267</v>
       </c>
-      <c r="G300">
+      <c r="F301" t="s">
+        <v>268</v>
+      </c>
+      <c r="G301">
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
-      <c r="A303" t="s">
-        <v>0</v>
-      </c>
-      <c r="B303">
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>0</v>
+      </c>
+      <c r="B304">
         <v>15015001</v>
       </c>
-      <c r="C303" t="s">
-        <v>268</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="C304" t="s">
         <v>269</v>
       </c>
-      <c r="F303" t="s">
+      <c r="E304" t="s">
         <v>270</v>
       </c>
-      <c r="G303">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B305">
-        <v>15015100</v>
-      </c>
-      <c r="C305" t="s">
+      <c r="F304" t="s">
         <v>271</v>
       </c>
-      <c r="E305" t="s">
-        <v>269</v>
-      </c>
-      <c r="F305" t="s">
-        <v>270</v>
-      </c>
-      <c r="G305">
+      <c r="G304">
         <v>5</v>
       </c>
     </row>
@@ -7297,18 +7302,38 @@
         <v>0</v>
       </c>
       <c r="B306">
-        <v>15015101</v>
+        <v>15015100</v>
       </c>
       <c r="C306" t="s">
         <v>272</v>
       </c>
       <c r="E306" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F306" t="s">
+        <v>271</v>
+      </c>
+      <c r="G306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>15015101</v>
+      </c>
+      <c r="C307" t="s">
+        <v>273</v>
+      </c>
+      <c r="E307" t="s">
         <v>270</v>
       </c>
-      <c r="G306">
+      <c r="F307" t="s">
+        <v>271</v>
+      </c>
+      <c r="G307">
         <v>5</v>
       </c>
     </row>
